--- a/docs/test_cases/DOM vs SAX/maps.xlsx
+++ b/docs/test_cases/DOM vs SAX/maps.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>Map size</t>
   </si>
@@ -48,55 +48,10 @@
     <t>2Mb</t>
   </si>
   <si>
-    <t>3209ms</t>
-  </si>
-  <si>
-    <t>5964ms</t>
-  </si>
-  <si>
-    <t>12051ms</t>
-  </si>
-  <si>
-    <t>30139ms</t>
-  </si>
-  <si>
-    <t>4150ms</t>
-  </si>
-  <si>
-    <t>7509ms</t>
-  </si>
-  <si>
-    <t>13835ms</t>
-  </si>
-  <si>
-    <t>30720ms</t>
-  </si>
-  <si>
-    <t>5355ms</t>
-  </si>
-  <si>
-    <t>10266ms</t>
-  </si>
-  <si>
-    <t>19781ms</t>
-  </si>
-  <si>
-    <t>50028ms</t>
-  </si>
-  <si>
-    <t>5825ms</t>
-  </si>
-  <si>
-    <t>11341ms</t>
-  </si>
-  <si>
-    <t>20647ms</t>
-  </si>
-  <si>
-    <t>55274ms</t>
-  </si>
-  <si>
     <t>---</t>
+  </si>
+  <si>
+    <t>DomMapBuilder + FormattedTextDomBuilder</t>
   </si>
 </sst>
 </file>
@@ -158,6 +113,356 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.1510202714022456E-2"/>
+          <c:y val="4.1465981027083078E-2"/>
+          <c:w val="0.7801237951639024"/>
+          <c:h val="0.83722363021574353"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SaxMap+SaxText</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50Kb</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100Kb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200Kb</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500Kb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3209</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5964</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12051</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30139</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SaxMap+DomText</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50Kb</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100Kb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200Kb</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500Kb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7509</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13835</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30720</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>DomMap+SaxText</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50Kb</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100Kb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200Kb</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500Kb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5355</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10266</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19781</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>DomMap+DomText</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50Kb</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100Kb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200Kb</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500Kb</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5825</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11341</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20647</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55274</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="68867200"/>
+        <c:axId val="68868736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="68867200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="68868736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="68868736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time in milliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="68867200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2733675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="DOM  vs SAX"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.23958</cdr:x>
+      <cdr:y>0.24746</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.43958</cdr:x>
+      <cdr:y>0.57288</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1095375" y="695326"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -448,7 +753,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -456,7 +761,7 @@
     <col min="2" max="2" width="39.42578125" customWidth="1"/>
     <col min="3" max="3" width="40.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.5703125" customWidth="1"/>
-    <col min="5" max="5" width="40.140625" customWidth="1"/>
+    <col min="5" max="5" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -473,75 +778,75 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
+      <c r="B2" s="1">
+        <v>3209</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4150</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5355</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5825</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
+      <c r="B3" s="1">
+        <v>5964</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7509</v>
+      </c>
+      <c r="D3" s="1">
+        <v>10266</v>
+      </c>
+      <c r="E3" s="1">
+        <v>11341</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
+      <c r="B4" s="1">
+        <v>12051</v>
+      </c>
+      <c r="C4" s="1">
+        <v>13835</v>
+      </c>
+      <c r="D4" s="1">
+        <v>19781</v>
+      </c>
+      <c r="E4" s="1">
+        <v>20647</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>25</v>
+      <c r="B5" s="1">
+        <v>30139</v>
+      </c>
+      <c r="C5" s="1">
+        <v>30720</v>
+      </c>
+      <c r="D5" s="1">
+        <v>50028</v>
+      </c>
+      <c r="E5" s="1">
+        <v>55274</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -549,16 +854,16 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -566,21 +871,22 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
